--- a/info/metricas/NN/TANH/NN5.xlsx
+++ b/info/metricas/NN/TANH/NN5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MeanAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MedianAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>MaxError</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MeanAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MedianAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>varianzaExplicada</t>
@@ -471,10 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -485,34 +495,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1796.087524414062</v>
+        <v>0.8024782854961925</v>
       </c>
       <c r="C2" t="n">
-        <v>74553.38422145242</v>
+        <v>73448.68558737572</v>
       </c>
       <c r="D2" t="n">
-        <v>180.8494138471242</v>
+        <v>179.2647994193161</v>
       </c>
       <c r="E2" t="n">
-        <v>919438.4199987793</v>
+        <v>102.8196923828125</v>
       </c>
       <c r="F2" t="n">
-        <v>106.9511083984375</v>
+        <v>911382.2402478028</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8019714156349029</v>
+        <v>1799.83056640625</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8025997698335312</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>0.8051311712910387</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.918454346452556e+16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-103815.7209032994</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
@@ -521,34 +537,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1816.4716796875</v>
+        <v>0.780802521456555</v>
       </c>
       <c r="C3" t="n">
-        <v>83458.79820647977</v>
+        <v>77093.06973302802</v>
       </c>
       <c r="D3" t="n">
-        <v>185.7778354922699</v>
+        <v>181.2976945002186</v>
       </c>
       <c r="E3" t="n">
-        <v>944494.5156427003</v>
+        <v>108.1073895263671</v>
       </c>
       <c r="F3" t="n">
-        <v>106.5719696044922</v>
+        <v>921717.4788391114</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7780716353205501</v>
+        <v>1817.042846679688</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7788469745857232</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>0.7808495950585725</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.822008621599374e+16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-98340.13867674046</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
@@ -557,34 +579,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1810.411499023438</v>
+        <v>0.7827744758645578</v>
       </c>
       <c r="C4" t="n">
-        <v>80369.38668083174</v>
+        <v>77819.94343894116</v>
       </c>
       <c r="D4" t="n">
-        <v>182.7821791341978</v>
+        <v>180.4665547528331</v>
       </c>
       <c r="E4" t="n">
-        <v>929264.5987182617</v>
+        <v>104.95916015625</v>
       </c>
       <c r="F4" t="n">
-        <v>105.5349920654297</v>
+        <v>917491.9643634034</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7900037882204223</v>
+        <v>1815.454711914062</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7906465117111996</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>0.7827945872126649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.362460006221021e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-97511.91232655826</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
@@ -593,34 +621,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1809.447631835938</v>
+        <v>0.8075797766471877</v>
       </c>
       <c r="C5" t="n">
-        <v>79835.73490662989</v>
+        <v>75874.35714607734</v>
       </c>
       <c r="D5" t="n">
-        <v>184.5556317587672</v>
+        <v>183.192127595987</v>
       </c>
       <c r="E5" t="n">
-        <v>938280.8318615722</v>
+        <v>110.6196264648437</v>
       </c>
       <c r="F5" t="n">
-        <v>110.6145874023438</v>
+        <v>931348.7766979981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7952474242695208</v>
+        <v>1806.31787109375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7952478379040903</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>0.8079005314301602</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.845833272480258e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-106651.433075624</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
@@ -629,34 +663,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1809.8525390625</v>
+        <v>0.7939214880731563</v>
       </c>
       <c r="C6" t="n">
-        <v>71800.82746053489</v>
+        <v>75662.15267213662</v>
       </c>
       <c r="D6" t="n">
-        <v>177.6058208529667</v>
+        <v>178.22040194154</v>
       </c>
       <c r="E6" t="n">
-        <v>902770.3873956299</v>
+        <v>104.8098925781251</v>
       </c>
       <c r="F6" t="n">
-        <v>108.1606640625</v>
+        <v>905894.3030688476</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8091857529865765</v>
+        <v>1807.11474609375</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8093777312519945</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>0.7948599722481017</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.859139327153038e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-96984.60532697862</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
@@ -665,34 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1801.296997070312</v>
+        <v>0.7929561228529053</v>
       </c>
       <c r="C7" t="n">
-        <v>81542.90275114443</v>
+        <v>77244.8939538241</v>
       </c>
       <c r="D7" t="n">
-        <v>184.3706665838776</v>
+        <v>181.1672215281503</v>
       </c>
       <c r="E7" t="n">
-        <v>937156.0982458496</v>
+        <v>105.6748095703125</v>
       </c>
       <c r="F7" t="n">
-        <v>105.7243041992188</v>
+        <v>920872.9870275878</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7891634090003848</v>
+        <v>1812.221069335938</v>
       </c>
       <c r="H7" t="n">
-        <v>0.790116091706462</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>0.7930283367014305</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.845996621099422e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-97603.76065191298</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
@@ -701,34 +747,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1800.329711914062</v>
+        <v>0.7970197781790642</v>
       </c>
       <c r="C8" t="n">
-        <v>70807.6630781299</v>
+        <v>77037.83803226698</v>
       </c>
       <c r="D8" t="n">
-        <v>175.8843576467072</v>
+        <v>178.9889226953903</v>
       </c>
       <c r="E8" t="n">
-        <v>894020.1899182128</v>
+        <v>101.1408276367188</v>
       </c>
       <c r="F8" t="n">
-        <v>104.9740087890625</v>
+        <v>909800.6940606688</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7944611998465197</v>
+        <v>1804.989868164062</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7946162156228884</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>0.797243029215906</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.769818481264822e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-121855.1660323727</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
@@ -737,34 +789,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1809.734252929688</v>
+        <v>0.7998616689262377</v>
       </c>
       <c r="C9" t="n">
-        <v>75771.05578860798</v>
+        <v>75540.44870504667</v>
       </c>
       <c r="D9" t="n">
-        <v>179.6126897507719</v>
+        <v>179.6315590145239</v>
       </c>
       <c r="E9" t="n">
-        <v>912971.3020031739</v>
+        <v>104.0244799804688</v>
       </c>
       <c r="F9" t="n">
-        <v>103.5149560546875</v>
+        <v>913067.2144708252</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7855732072824757</v>
+        <v>1797.804443359375</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7855816426740136</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>0.8006391775476343</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.981424151566714e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-93925.52700918412</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
@@ -773,34 +831,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1807.370361328125</v>
+        <v>0.781031667111266</v>
       </c>
       <c r="C10" t="n">
-        <v>76036.28460413113</v>
+        <v>82870.11762384215</v>
       </c>
       <c r="D10" t="n">
-        <v>179.5716117564398</v>
+        <v>186.3101445711876</v>
       </c>
       <c r="E10" t="n">
-        <v>912762.5025579834</v>
+        <v>104.6566033935547</v>
       </c>
       <c r="F10" t="n">
-        <v>104.2697802734375</v>
+        <v>947014.4648553466</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7928512613722167</v>
+        <v>1809.467651367188</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7930795436559254</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>0.7810679594876351</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.274232672014414e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-91329.58903414034</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
@@ -809,34 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1794.02587890625</v>
+        <v>0.7897686716173518</v>
       </c>
       <c r="C11" t="n">
-        <v>73485.12900431428</v>
+        <v>76855.96355779258</v>
       </c>
       <c r="D11" t="n">
-        <v>178.0276461769778</v>
+        <v>181.6343200364189</v>
       </c>
       <c r="E11" t="n">
-        <v>904914.525517578</v>
+        <v>108.2066564941406</v>
       </c>
       <c r="F11" t="n">
-        <v>102.8379992675781</v>
+        <v>923247.2487451172</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7979739028225732</v>
+        <v>1813.765747070312</v>
       </c>
       <c r="H11" t="n">
-        <v>0.798315753090313</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>0.7897893118301371</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.622356170891132e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-101256.2603313744</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>TANH5</t>
         </is>
       </c>
     </row>
